--- a/t1_confection/Miscellaneous/A-O_AR_Model_Base_Year.xlsx
+++ b/t1_confection/Miscellaneous/A-O_AR_Model_Base_Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\Backups\ndc_cr_30\t1_confection\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\relac_tx\t1_confection\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26808E9-B626-4761-91A4-C84D221B0729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49B0A7-DFD6-46AB-BFB1-8120E7D19190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Tech</t>
   </si>
@@ -92,13 +92,16 @@
   </si>
   <si>
     <t>Unit.Fuel.I.2</t>
+  </si>
+  <si>
+    <t>Mode.Operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +113,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,11 +169,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -175,6 +197,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,39 +503,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -520,57 +606,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -579,56 +727,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -637,194 +804,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A2:J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -835,8 +872,9 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -847,8 +885,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -859,8 +898,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -871,8 +911,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -883,8 +924,9 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -895,8 +937,9 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -907,8 +950,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -919,8 +963,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -931,8 +976,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -943,6 +989,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,15 +997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341064803B07E4F8A0204BD36BE6D07" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75815dbc30d6e2c2c6f7db4084dd8576">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48eed89a-7418-4977-ae3a-838f0fac8ec5" xmlns:ns3="416d42ac-85ec-40c4-8054-6c816fd4b6a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62d034e6bb04b5aaada07dd500b11312" ns2:_="" ns3:_="">
     <xsd:import namespace="48eed89a-7418-4977-ae3a-838f0fac8ec5"/>
@@ -1159,6 +1197,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1171,14 +1218,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605A1725-A85D-4610-995F-30175737C566}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459C0104-4D21-41BE-905A-77EDFC205E81}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1197,6 +1236,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605A1725-A85D-4610-995F-30175737C566}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A101C3B-C404-42C5-BBC1-6A7DEAB5448F}">
   <ds:schemaRefs>
